--- a/개인정보샘플.xlsx
+++ b/개인정보샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\UiPath\Govkr_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AF617D-27F9-427F-AFC8-2D98594B71B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6B9D13-F7CE-4950-B6FA-C2A6A09B2F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF7A9ECE-B507-4989-9106-C203E84DBF2F}"/>
   </bookViews>
@@ -469,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2C3796-5EF3-4E23-A20C-4DE123CC65EF}">
-  <dimension ref="A2:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -481,35 +481,49 @@
     <col min="5" max="5" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" ht="19.2" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="19.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -517,7 +531,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -525,15 +539,15 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -541,17 +555,9 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/개인정보샘플.xlsx
+++ b/개인정보샘플.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\UiPath\Govkr_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6B9D13-F7CE-4950-B6FA-C2A6A09B2F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E99E426-096C-40B1-85A6-F8BEB546B819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF7A9ECE-B507-4989-9106-C203E84DBF2F}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{EF7A9ECE-B507-4989-9106-C203E84DBF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -538,25 +538,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
-      </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>

--- a/개인정보샘플.xlsx
+++ b/개인정보샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\UiPath\Govkr_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E99E426-096C-40B1-85A6-F8BEB546B819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B896CD-CB9D-455B-80D3-6CA8FE5F6CF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{EF7A9ECE-B507-4989-9106-C203E84DBF2F}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -538,16 +538,25 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>

--- a/개인정보샘플.xlsx
+++ b/개인정보샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\UiPath\Govkr_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B896CD-CB9D-455B-80D3-6CA8FE5F6CF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD22A948-E41C-48E9-B7CF-3AF0B9F0BDCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{EF7A9ECE-B507-4989-9106-C203E84DBF2F}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/개인정보샘플.xlsx
+++ b/개인정보샘플.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\UiPath\Govkr_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD22A948-E41C-48E9-B7CF-3AF0B9F0BDCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288B2F58-7F99-46D2-A486-DCC38CCB8FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{EF7A9ECE-B507-4989-9106-C203E84DBF2F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF7A9ECE-B507-4989-9106-C203E84DBF2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1"/>
@@ -469,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2C3796-5EF3-4E23-A20C-4DE123CC65EF}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -561,6 +561,198 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개인정보샘플.xlsx
+++ b/개인정보샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\UiPath\Govkr_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288B2F58-7F99-46D2-A486-DCC38CCB8FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F52B55-68CB-455C-80CB-E168C504A542}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF7A9ECE-B507-4989-9106-C203E84DBF2F}"/>
   </bookViews>
@@ -469,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2C3796-5EF3-4E23-A20C-4DE123CC65EF}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -753,6 +753,366 @@
         <v>9</v>
       </c>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F151" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/개인정보샘플.xlsx
+++ b/개인정보샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\UiPath\Govkr_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F52B55-68CB-455C-80CB-E168C504A542}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51775BB8-E8C2-4BC6-B502-662F66426EDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF7A9ECE-B507-4989-9106-C203E84DBF2F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="10">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1"/>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2C3796-5EF3-4E23-A20C-4DE123CC65EF}">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="I143" sqref="I143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -754,363 +754,1023 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.4">
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F151" s="1"/>
     </row>
   </sheetData>
